--- a/model/results/grey_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/grey_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>117878955.2238806</v>
+        <v>607530000.0000002</v>
       </c>
       <c r="C3" t="n">
-        <v>117878955.2238806</v>
+        <v>607530000.0000002</v>
       </c>
       <c r="D3" t="n">
-        <v>117878955.2238806</v>
+        <v>789788999.9999999</v>
       </c>
       <c r="E3" t="n">
-        <v>36080820.8955224</v>
+        <v>241741500</v>
       </c>
       <c r="F3" t="n">
-        <v>36080820.89552239</v>
+        <v>241741500</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -805,73 +805,73 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>353294117.6470583</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>56527058.8235293</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28263529.41176465</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45928235.29411761</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>31796470.58823525</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>158982352.9411763</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>282635294.1176468</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>105988235.2941174</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35329411.76470584</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>183712941.1764705</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3532941.176470581</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>95389411.76470567</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>70658823.52941169</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>24730588.23529406</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>155449411.7647057</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>130718823.5294116</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>70658823.52941169</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>353294.1176470586</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1766470.58823529</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>42395294.11764701</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>10598823.52941175</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>95389411.76470567</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>21197647.05882351</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>170780921.7750954</v>
+        <v>880178596.8408765</v>
       </c>
       <c r="C6" t="n">
-        <v>170780921.7750954</v>
+        <v>880178596.8408761</v>
       </c>
       <c r="D6" t="n">
-        <v>170780921.7750954</v>
+        <v>1408285754.945402</v>
       </c>
       <c r="E6" t="n">
-        <v>52273247.91975354</v>
+        <v>431053244.3844291</v>
       </c>
       <c r="F6" t="n">
-        <v>52273247.91975354</v>
+        <v>431053244.384429</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>899578630.8974178</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>899578630.8974178</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1591,73 +1591,73 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>123308698.1675535</v>
+        <v>87847373.20433554</v>
       </c>
       <c r="K9" t="n">
-        <v>19729391.70680856</v>
+        <v>14055579.71269369</v>
       </c>
       <c r="L9" t="n">
-        <v>9864695.853404278</v>
+        <v>7027789.856346844</v>
       </c>
       <c r="M9" t="n">
-        <v>16030130.76178195</v>
+        <v>11420158.51656362</v>
       </c>
       <c r="N9" t="n">
-        <v>11097782.83507981</v>
+        <v>7906263.588390198</v>
       </c>
       <c r="O9" t="n">
-        <v>55488914.17539906</v>
+        <v>39531317.94195098</v>
       </c>
       <c r="P9" t="n">
-        <v>98646958.53404278</v>
+        <v>70277898.56346841</v>
       </c>
       <c r="Q9" t="n">
-        <v>36992609.45026604</v>
+        <v>26354211.96130067</v>
       </c>
       <c r="R9" t="n">
-        <v>12330869.81675535</v>
+        <v>8784737.320433551</v>
       </c>
       <c r="S9" t="n">
-        <v>64120523.04712781</v>
+        <v>45680634.06625447</v>
       </c>
       <c r="T9" t="n">
-        <v>1233086.981675535</v>
+        <v>878473.7320433555</v>
       </c>
       <c r="U9" t="n">
-        <v>33293348.50523943</v>
+        <v>23718790.76517059</v>
       </c>
       <c r="V9" t="n">
-        <v>24661739.63351069</v>
+        <v>17569474.6408671</v>
       </c>
       <c r="W9" t="n">
-        <v>8631608.871728744</v>
+        <v>6149316.124303491</v>
       </c>
       <c r="X9" t="n">
-        <v>54255827.19372353</v>
+        <v>38652844.20990763</v>
       </c>
       <c r="Y9" t="n">
-        <v>45624218.32199478</v>
+        <v>32503528.08560414</v>
       </c>
       <c r="Z9" t="n">
-        <v>24661739.63351069</v>
+        <v>17569474.6408671</v>
       </c>
       <c r="AA9" t="n">
-        <v>123308.6981675535</v>
+        <v>87847.37320433548</v>
       </c>
       <c r="AB9" t="n">
-        <v>616543.4908377674</v>
+        <v>439236.8660216777</v>
       </c>
       <c r="AC9" t="n">
-        <v>14797043.78010642</v>
+        <v>10541684.78452026</v>
       </c>
       <c r="AD9" t="n">
-        <v>3699260.945026604</v>
+        <v>2635421.196130066</v>
       </c>
       <c r="AE9" t="n">
-        <v>33293348.50523943</v>
+        <v>23718790.76517059</v>
       </c>
       <c r="AF9" t="n">
-        <v>7398521.890053209</v>
+        <v>5270842.392260131</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>902280066.4255809</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>276173176.2253203</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276173176.2253203</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>907707299.0842712</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>277834363.4079233</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>277834363.4079233</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
